--- a/_Notes/eventheads.xlsx
+++ b/_Notes/eventheads.xlsx
@@ -34,22 +34,22 @@
     <t xml:space="preserve">eventid</t>
   </si>
   <si>
-    <t xml:space="preserve">Vikramsinh Dantkale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vkpaul123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thomas@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreyansh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shreyansh@gmail.com</t>
+    <t xml:space="preserve">STANLY WILSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanly.wilson@mca.christuniversity.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanly123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTRA GUPTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antra.gupta@mca.christuniversity.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antra123</t>
   </si>
 </sst>
 </file>
@@ -146,21 +146,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="16.3775510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.6173469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.9795918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -184,8 +185,8 @@
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>123456</v>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>13</v>
@@ -193,29 +194,15 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>112233</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>332211</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>13</v>
       </c>
     </row>
